--- a/public/tarifs_livraison.xlsx
+++ b/public/tarifs_livraison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastienmorichon/Chez Soeurettes/Application B2B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastienmorichon/Chez Soeurettes/Application B2B/Devis_transport/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A4BEE-2CB1-804F-90C6-CED26F31C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF879EEC-67EA-F14C-8315-C1236549CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{CB5ABA79-2752-9D4C-9F0B-E020EC0DB00A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{CB5ABA79-2752-9D4C-9F0B-E020EC0DB00A}"/>
   </bookViews>
   <sheets>
     <sheet name="Poids" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>20 à 29</t>
   </si>
   <si>
-    <t>30 à 38</t>
-  </si>
-  <si>
     <t>40 à 49</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>Cout fixe ESAT par palette</t>
+  </si>
+  <si>
+    <t>30 à 39</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9DAE48-D97C-B648-B79B-14D4097DB155}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,45 +949,45 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>35.299999999999997</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>34.369999999999997</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>32.520000000000003</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>46.29</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>79.67</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>45.36</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>78.239999999999995</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>52.72</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>89.55</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>39.869999999999997</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>38.01</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>38.01</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>66.930000000000007</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
         <v>32.520000000000003</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>39.869999999999997</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>37.08</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
         <v>44.43</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
         <v>29.72</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
         <v>32.520000000000003</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>23.3</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2">
         <v>19.66</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
         <v>35.85</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
         <v>27.94</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
         <v>29.72</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
         <v>155.54</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
         <v>33.44</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
         <v>28.88</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
         <v>50.03</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2">
         <v>28.88</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
         <v>28.88</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2">
         <v>35.299999999999997</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2">
         <v>62.76</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>36.22</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>27.94</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
         <v>27.94</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2">
         <v>29.72</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2">
         <v>51.45</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2">
         <v>41.73</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2">
         <v>31.58</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2">
         <v>57.04</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2">
         <v>35.299999999999997</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2">
         <v>25.16</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2">
         <v>41.73</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
         <v>24.23</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2">
         <v>26.08</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
         <v>22.44</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2">
         <v>36.22</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2">
         <v>64.2</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
         <v>36.22</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2">
         <v>64.2</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2">
         <v>32.520000000000003</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2">
         <v>26.08</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2">
         <v>34.369999999999997</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2">
         <v>61.34</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2">
         <v>37.08</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2">
         <v>19.66</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2">
         <v>27.94</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2">
         <v>33.44</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2">
         <v>31.58</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2">
         <v>38.01</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2">
         <v>20.59</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2">
         <v>31.58</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2">
         <v>36.22</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2">
         <v>33.44</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2">
         <v>27.01</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2">
         <v>38.01</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2">
         <v>34.369999999999997</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2">
         <v>27.94</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2">
         <v>48.58</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2">
         <v>38.01</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2">
         <v>30.65</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2">
         <v>33.44</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2">
         <v>31.58</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2">
         <v>26.08</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2">
         <v>34.369999999999997</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2">
         <v>32.520000000000003</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2">
         <v>58.47</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2">
         <v>32.520000000000003</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2">
         <v>58.47</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2">
         <v>34.369999999999997</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2">
         <v>61.34</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2">
         <v>39.869999999999997</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2">
         <v>69.78</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2">
         <v>38.94</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2">
         <v>38.94</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2">
         <v>32.520000000000003</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2">
         <v>38.94</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2">
         <v>33.44</v>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2">
         <v>23.3</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="91" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2">
         <v>37.08</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2">
         <v>65.63</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2">
         <v>37.08</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2">
         <v>65.63</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2">
         <v>29.72</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2">
         <v>27.94</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2">
         <v>31.58</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2">
         <v>30.65</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2">
         <v>17.8</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2">
         <v>33.44</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2">
         <v>35.299999999999997</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="102" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2">
         <v>31.58</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2">
         <v>48.15</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2">
         <v>39.869999999999997</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="105" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2">
         <v>17.8</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2">
         <v>33.11</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2">
         <v>21.52</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2">
         <v>25.16</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2">
         <v>38.01</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2">
         <v>64.2</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2">
         <v>31.58</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="112" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2">
         <v>37.08</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2">
         <v>30.65</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2">
         <v>29.72</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2">
         <v>29.72</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2">
         <v>29.72</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2">
         <v>29.72</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2">
         <v>89.55</v>
@@ -6845,7 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028A9CE2-17F1-BF47-887A-571BA5C7CE80}">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>199.32</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>195.11</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>157.21</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
         <v>245.63</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <v>386.99</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <v>245.63</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>386.99</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <v>254.05</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <v>399.02</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5">
         <v>199.32</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5">
         <v>211.95</v>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <v>207.74</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <v>332.86</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5">
         <v>174.06</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5">
         <v>195.11</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5">
         <v>220.37</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5">
         <v>233</v>
@@ -7216,7 +7216,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5">
         <v>157.21</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5">
         <v>199.32</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="5">
         <v>123.54</v>
@@ -7276,7 +7276,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="5">
         <v>102.48</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5">
         <v>170.46</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5">
         <v>144.59</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5">
         <v>148.79</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5">
         <v>621.57000000000005</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5">
         <v>186.69</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="5">
         <v>153.01</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="5">
         <v>242.64</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="5">
         <v>153.01</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5">
         <v>144.59</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="5">
         <v>186.69</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5">
         <v>302.79000000000002</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="5">
         <v>190.9</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="5">
         <v>157.21</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="5">
         <v>148.79</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="5">
         <v>153.01</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="5">
         <v>254.67</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="5">
         <v>211.95</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="5">
         <v>178.27</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="5">
         <v>290.76</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5">
         <v>186.69</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="5">
         <v>127.74</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="5">
         <v>207.74</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="5">
         <v>123.54</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="5">
         <v>127.74</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5">
         <v>119.32</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="5">
         <v>190.9</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="5">
         <v>308.8</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="5">
         <v>199.32</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="5">
         <v>320.83</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="5">
         <v>161.43</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="5">
         <v>127.74</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="5">
         <v>182.48</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="5">
         <v>296.77</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="5">
         <v>199.32</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="5">
         <v>110.9</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="5">
         <v>144.59</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="5">
         <v>169.85</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="5">
         <v>161.43</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="5">
         <v>224.58</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="5">
         <v>115.12</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="5">
         <v>174.06</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="5">
         <v>182.48</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="5">
         <v>178.27</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="5">
         <v>123.54</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="5">
         <v>199.32</v>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="5">
         <v>182.48</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="5">
         <v>123.54</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="5">
         <v>212.56</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="5">
         <v>203.53</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="5">
         <v>169.85</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="5">
         <v>186.69</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="5">
         <v>169.85</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="5">
         <v>140.37</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="5">
         <v>182.48</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="5">
         <v>157.21</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="5">
         <v>260.68</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="5">
         <v>169.85</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="5">
         <v>278.73</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="5">
         <v>182.48</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="5">
         <v>296.77</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="5">
         <v>203.53</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="5">
         <v>326.83999999999997</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="5">
         <v>211.95</v>
@@ -8556,7 +8556,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="5">
         <v>203.53</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="5">
         <v>182.48</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="5">
         <v>216.16</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="5">
         <v>190.9</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="5">
         <v>123.54</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="5">
         <v>195.11</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="5">
         <v>314.82</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="5">
         <v>195.11</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="5">
         <v>314.82</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="5">
         <v>165.63</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="5">
         <v>161.43</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="5">
         <v>165.63</v>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="5">
         <v>165.63</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="5">
         <v>89.85</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="5">
         <v>178.27</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="5">
         <v>195.11</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="5">
         <v>169.85</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="5">
         <v>233</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="5">
         <v>216.16</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="5">
         <v>94.06</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="5">
         <v>170.46</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="5">
         <v>102.48</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="5">
         <v>148.79</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="5">
         <v>199.32</v>
@@ -9036,7 +9036,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="5">
         <v>308.8</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="5">
         <v>178.27</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="5">
         <v>195.11</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="5">
         <v>165.63</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="5">
         <v>165.63</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="5">
         <v>165.63</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="5">
         <v>165.63</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="5">
         <v>165.63</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="5">
         <v>399.02</v>
@@ -9231,33 +9231,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -9273,17 +9273,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>150</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>175</v>
@@ -9299,22 +9299,22 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -9322,12 +9322,12 @@
         <v>12.83</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="6">
         <v>2.4700000000000002</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21">
         <v>27.39</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="6">
         <v>0.85</v>
@@ -9351,15 +9351,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
         <v>151</v>
-      </c>
-      <c r="B25" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26">
         <f>30/12</f>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="7">
         <v>45</v>
